--- a/Домашнее задание 6. Дополнение тест кейсов vk.com.xlsx
+++ b/Домашнее задание 6. Дополнение тест кейсов vk.com.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanyu\Desktop\MyProjectHtml, GIT\GIT\FirstGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" tabRatio="682" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="682" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -2114,6 +2114,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2131,21 +2146,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2231,6 +2231,331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>262467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10938933" y="25400"/>
+          <a:ext cx="1176866" cy="237067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Общее</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Failed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10964334" y="270934"/>
+          <a:ext cx="1134533" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Общее</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Passed</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1092200" cy="228600"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10998200" y="491067"/>
+          <a:ext cx="1092200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Дата</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>220132</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="474134" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11624734" y="685799"/>
+          <a:ext cx="474134" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Build</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="701923" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11463866" y="872067"/>
+          <a:ext cx="701923" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Браузер</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2547,7 +2872,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -2575,7 +2900,7 @@
     <col min="21" max="21" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" ht="10.199999999999999" customHeight="1">
+    <row r="1" spans="1:124" ht="21" customHeight="1">
       <c r="A1" s="12"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2620,7 +2945,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:124" ht="9" customHeight="1">
+    <row r="2" spans="1:124" ht="15" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2665,7 +2990,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:124" ht="12" customHeight="1">
+    <row r="3" spans="1:124" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2679,7 +3004,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>44054</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -2695,7 +3022,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:124" ht="10.8" customHeight="1">
+    <row r="4" spans="1:124" ht="16.2" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2721,7 +3048,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:124" ht="11.4" customHeight="1">
+    <row r="5" spans="1:124" ht="16.8" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2763,43 +3090,43 @@
     </row>
     <row r="6" spans="1:124" ht="13.8" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="56"/>
+      <c r="P6" s="48"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="56"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="56"/>
+      <c r="T6" s="48"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2809,29 +3136,29 @@
     </row>
     <row r="7" spans="1:124" ht="90.6" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="58"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="56"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="56"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="56"/>
+      <c r="P7" s="48"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="56"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="56"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -5858,6 +6185,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -5865,14 +6198,8 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N77 R12:R77 P12:P77 T12:T77 L13:L77">
       <formula1>Result</formula1>
     </dataValidation>
@@ -5883,5 +6210,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Домашнее задание 6. Дополнение тест кейсов vk.com.xlsx
+++ b/Домашнее задание 6. Дополнение тест кейсов vk.com.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanyu\Desktop\MyProjectHtml, GIT\GIT\FirstGitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanyu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="195">
   <si>
     <t>passed</t>
   </si>
@@ -1618,6 +1618,38 @@
     <t>1. Перейти на сайт vk.com;
 2. На странице авторизации поля ""Телефон или e-mail"" и "Пароль" оставить пустыми;
 3. Нажать кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>Моя страница - Редактировать личную информацию - Основное - VK connect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Предусловие: 
+Быть авторизованным на сайте vk.com, нажать на вкладку "Моя страница" в левом меню сайта;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. В блоке "Личная информация" нажать на ссылку "Показать подробную информацию";
+2. Ввести в поле текст: "Таким образом, реализация намеченного плана развития влечет за собой процесс внедрения и модернизации экономической целесообразности принимаемых решений.";
+3. Нажать на кнопку "Опубликовать"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1985,7 +2017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2114,21 +2146,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2146,6 +2163,24 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2869,10 +2904,10 @@
   <dimension ref="A1:DT96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -3090,43 +3125,43 @@
     </row>
     <row r="6" spans="1:124" ht="13.8" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="49"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="56" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="56" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="48"/>
+      <c r="P6" s="56"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="48"/>
+      <c r="R6" s="56"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="48"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -3136,29 +3171,29 @@
     </row>
     <row r="7" spans="1:124" ht="90.6" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="54"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="50"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="48"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="48"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="48"/>
+      <c r="P7" s="56"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="48"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="48"/>
+      <c r="T7" s="56"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -5400,14 +5435,18 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="173.4" customHeight="1">
+    <row r="67" spans="1:26" ht="213.6" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="14">
         <v>60</v>
       </c>
-      <c r="C67" s="27"/>
+      <c r="C67" s="59" t="s">
+        <v>193</v>
+      </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="27"/>
+      <c r="E67" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="F67" s="27"/>
       <c r="G67" s="14"/>
       <c r="H67" s="26"/>
@@ -6185,12 +6224,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -6198,6 +6231,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N77 R12:R77 P12:P77 T12:T77 L13:L77">
